--- a/00.Data/00_Country Shapefiles/Admin3/bfa_adminboundaries_tabulardata.xlsx
+++ b/00.Data/00_Country Shapefiles/Admin3/bfa_adminboundaries_tabulardata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgiar-my.sharepoint.com/personal/i_diop_cgiar_org/Documents/020_GithubDesktop/Application-of-Fay-Herriot-Model-for-Burkina-Faso/00.Data/EHCVM data/Country_Admin_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgiar-my.sharepoint.com/personal/i_diop_cgiar_org/Documents/020_GithubDesktop/Application-of-Fay-Herriot-Model-for-Burkina-Faso/00.Data/00_Country Shapefiles/Admin3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C91E35F6-818D-4D16-8C0B-29F3A1101AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{C91E35F6-818D-4D16-8C0B-29F3A1101AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6259256-AF96-42EB-9E8C-6674DD34A3F7}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="6180" windowWidth="14610" windowHeight="15585" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADM0" sheetId="1" r:id="rId1"/>
@@ -5079,8 +5079,8 @@
   <dimension ref="A1:O352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F325" sqref="F325"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:O352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
